--- a/Hardware/SignalAnalysis_Final/Project Outputs for SignalAnalysis_final/Bill of Materials for SignalAnalysis_final.xlsx
+++ b/Hardware/SignalAnalysis_Final/Project Outputs for SignalAnalysis_final/Bill of Materials for SignalAnalysis_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="299">
   <si>
     <t>Comment</t>
   </si>
@@ -83,9 +83,6 @@
     <t>C23, C27</t>
   </si>
   <si>
-    <t>Variable_Capacitor_JZ400HV1</t>
-  </si>
-  <si>
     <t>Capacitor_for resonance</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>C36</t>
   </si>
   <si>
-    <t>C60</t>
-  </si>
-  <si>
     <t>Diode</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>R25</t>
-  </si>
-  <si>
-    <t>R45</t>
   </si>
   <si>
     <t>STM32F767VIT6</t>
@@ -532,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC0805FR-0712KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,18 +539,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R41, R47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RC0603FR-0710KL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R7, R42, R46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RC0603FR-07100KL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,7 +571,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C2012X5R1E226M125AC</t>
+    <t>C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 47nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 100nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,24 +604,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 0805 25VDC 22uF 20% X5R 1.25mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 47nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 100nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL10B104KB8NNNC</t>
+      <t>MLCC - SMD/SMT 100nF+/-10% 50V X7R 1608</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10B473KB8NNNC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,12 +630,16 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 100nF+/-10% 50V X7R 1608</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL10B473KB8NNNC</t>
+      <t>MLCC - SMD/SMT 47nF+/-10% 50V X7R 1608</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM188R60J474KA01D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -677,16 +660,28 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 47nF+/-10% 50V X7R 1608</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM188R60J474KA01D</t>
+      <t>MLCC - SMD/SMT 0603 0.47uF 6.3volts X5R 10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 470nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuRata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4, C5, C6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 47μF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2012X5R1A476M125AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,28 +702,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 0603 0.47uF 6.3volts X5R 10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 470nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MuRata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4, C5, C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 47μF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2012X5R1A476M125AC</t>
+      <t>MLCC - SMD/SMT 0805 10V 47uF X5R 20% T: 1.25mm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2012X5R1V226M125AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,12 +728,24 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 0805 10V 47uF X5R 20% T: 1.25mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2012X5R1V226M125AC</t>
+      <t>MLCC - SMD/SMT 0805 35VDC 22uF 20% X5R 1.25mm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 2.2nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM155R71H222KA01D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -775,79 +766,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>MLCC - SMD/SMT 0805 35VDC 22uF 20% X5R 1.25mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 2.2nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM155R71H222KA01D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层陶瓷电容器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
       <t>MLCC - SMD/SMT 0402 2200pF 50volts X7R 10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM1887U0J333JA01D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap 33nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层陶瓷电容器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>MLCC - SMD/SMT 0603 0.033uF 6.3volts U2J 5%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,10 +926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C28, C39, C44, C45, C46, C47, C48, C49, C50, C54, C56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRM188R61E106KA73D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1255,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Do not place</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1617,6 +1528,123 @@
   </si>
   <si>
     <t>C53, C60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>Cap 4.7nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C26, C62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C28, C39, C44, C45, C46, C47, C48, C49, C50, C54, C56, C64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAGEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层陶瓷电容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>MLCC - SMD/SMT 16V 4700pF X7R 0603 10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7, R42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res 5KΩ ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res 145KΩ ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R41, R49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res 6.2KΩ ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res 50KΩ ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ400HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-076K2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0712KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR03BTC5002A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Viking</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,7 +1766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,9 +1774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2055,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,1447 +2123,1508 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="7">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="E55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="8">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="B59" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G54" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="B63" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="F63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="E66" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G66" s="7">
         <v>1</v>
       </c>
     </row>
